--- a/documents/Webtuts - Diagramme de gantt.xlsx
+++ b/documents/Webtuts - Diagramme de gantt.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="495" windowWidth="23415" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>semaine 1</t>
   </si>
@@ -31,7 +34,7 @@
     <t>Choix de l'équipe</t>
   </si>
   <si>
-    <t>Choix du sujet </t>
+    <t>Choix du sujet</t>
   </si>
   <si>
     <t>Repartition des tâches</t>
@@ -55,68 +58,69 @@
     <t>Intégration Back-office</t>
   </si>
   <si>
-    <t>Développement architecture fonctionnelle</t>
+    <t>Développement archi fonctionnelle</t>
+  </si>
+  <si>
+    <t>TOUS</t>
+  </si>
+  <si>
+    <t>Thibault &amp; Quentin</t>
+  </si>
+  <si>
+    <t>Richard &amp; Thibault</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Développement front-office</t>
+  </si>
+  <si>
+    <t>Développement back office</t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Richard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,8 +170,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -175,140 +185,691 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="2" fillId="3" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="4" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="5" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="6" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="3" fillId="7" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" xfId="0" fontId="0" fillId="8" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyFont="1" xfId="0" fontId="4" fillId="9" borderId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1155CC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" defaultColWidth="17.14" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <sheetData>
-    <row ht="31.5" r="1" customHeight="1">
-      <c t="s" r="B1">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="F1">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row ht="24.0" r="2" customHeight="1">
-      <c t="s" r="A2">
+    <row r="2" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c s="4" r="B2"/>
-    </row>
-    <row ht="22.5" r="3" customHeight="1">
-      <c t="s" r="A3">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c s="4" r="B3"/>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c s="4" r="B4"/>
-    </row>
-    <row r="5">
-      <c t="s" r="A5">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c s="5" r="B5"/>
-      <c s="5" r="C5"/>
-    </row>
-    <row r="6">
-      <c t="s" r="A6">
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c s="7" r="B6"/>
-      <c s="7" r="C6"/>
-    </row>
-    <row ht="26.25" r="7" customHeight="1">
-      <c t="s" r="A7">
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c s="6" r="B7"/>
-      <c s="6" r="C7"/>
-    </row>
-    <row r="8">
-      <c t="s" r="A8">
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c s="8" r="C8"/>
-      <c s="8" r="D8"/>
-      <c s="2" r="E8"/>
-    </row>
-    <row r="9">
-      <c t="s" r="A9">
+      <c r="B8" s="4"/>
+      <c r="C8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c s="1" r="D9"/>
-      <c s="1" r="E9"/>
-    </row>
-    <row r="10">
-      <c t="s" r="A10">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c s="3" r="D10"/>
-      <c s="3" r="E10"/>
-    </row>
-    <row r="11">
-      <c t="s" r="A11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c s="3" r="B11"/>
-      <c s="3" r="C11"/>
-      <c s="3" r="D11"/>
-      <c s="3" r="E11"/>
-      <c s="3" r="F11"/>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>